--- a/Resources/log_in_credentials.xlsx
+++ b/Resources/log_in_credentials.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t xml:space="preserve">username</t>
   </si>
@@ -29,6 +29,9 @@
   </si>
   <si>
     <t xml:space="preserve">superadmin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d7QUVg</t>
   </si>
 </sst>
 </file>
@@ -104,8 +107,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -129,12 +136,12 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="9.13"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -145,12 +152,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="0" t="n">
-        <v>12345</v>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Resources/log_in_credentials.xlsx
+++ b/Resources/log_in_credentials.xlsx
@@ -136,7 +136,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
+      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/Resources/log_in_credentials.xlsx
+++ b/Resources/log_in_credentials.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t xml:space="preserve">username</t>
   </si>
@@ -29,9 +29,6 @@
   </si>
   <si>
     <t xml:space="preserve">superadmin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d7QUVg</t>
   </si>
 </sst>
 </file>
@@ -136,7 +133,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
+      <selection pane="topLeft" activeCell="E5" activeCellId="0" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -156,8 +153,8 @@
       <c r="A2" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
+      <c r="B2" s="1" t="n">
+        <v>12345</v>
       </c>
     </row>
   </sheetData>
